--- a/Excel_Challenge_490 - Fill Down.xlsx
+++ b/Excel_Challenge_490 - Fill Down.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3CA7DC-DC04-4314-8E0D-CF0B8D433D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0438A7B-DCA6-4AAE-A441-8F015BD6BF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="ALT" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt2" sheetId="3" r:id="rId3"/>
+    <sheet name="Alt3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
   <si>
     <t>Level 1</t>
   </si>
@@ -116,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +133,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -162,16 +178,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -825,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F9CE5-9E8C-4780-A9B8-0E788D02E8A0}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +872,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1125,6 +1145,496 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{62F1D715-3724-43C5-BA19-6CAF4BDF1C6F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C464C2D-916F-4EC8-B852-CA41AD20D45B}">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" cm="1">
+        <f t="array" ref="C22:C38">_xlfn.LET(_xlpm.b,B2:B18,_xlpm.i,_xlfn.SCAN(0,LEN(A2:A18&amp;_xlpm.b),_xlfn.LAMBDA(_xlpm.a,_xlpm.v,IF(_xlpm.v&gt;1,1+INT(_xlpm.a),_xlpm.a+_xlpm.v*0.1))),IF(_xlpm.b="",INT(_xlpm.i),_xlpm.i))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>4.2999999999999989</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>5.1999999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD6A80D-8908-4584-84AA-154061888045}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A2, IF(OR(A2 &lt;&gt; "", B2 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B2)))</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A3, IF(OR(A3 &lt;&gt; "", B3 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B3)))</f>
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A4, IF(OR(A4 &lt;&gt; "", B4 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B4)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A5, IF(OR(A5 &lt;&gt; "", B5 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B5)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A6, IF(OR(A6 &lt;&gt; "", B6 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B6)))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A7, IF(OR(A7 &lt;&gt; "", B7 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B7)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A8, IF(OR(A8 &lt;&gt; "", B8 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B8)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A9, IF(OR(A9 &lt;&gt; "", B9 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B9)))</f>
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A10, IF(OR(A10 &lt;&gt; "", B10 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B10)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4.2</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A11, IF(OR(A11 &lt;&gt; "", B11 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B11)))</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>4.3</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A12, IF(OR(A12 &lt;&gt; "", B12 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B12)))</f>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A13, IF(OR(A13 &lt;&gt; "", B13 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B13)))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A14, IF(OR(A14 &lt;&gt; "", B14 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B14)))</f>
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>5.2</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A15, IF(OR(A15 &lt;&gt; "", B15 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B15)))</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A16, IF(OR(A16 &lt;&gt; "", B16 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B16)))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>6.1</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A17, IF(OR(A17 &lt;&gt; "", B17 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B17)))</f>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A18, IF(OR(A18 &lt;&gt; "", B18 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B18)))</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{D5F46E24-8DAE-454B-B351-BF55D65BC1A4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel_Challenge_490 - Fill Down.xlsx
+++ b/Excel_Challenge_490 - Fill Down.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0438A7B-DCA6-4AAE-A441-8F015BD6BF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E24D3AD-ECCC-4093-BCD2-42442F9B50BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt" sheetId="2" r:id="rId2"/>
     <sheet name="Alt2" sheetId="3" r:id="rId3"/>
     <sheet name="Alt3" sheetId="4" r:id="rId4"/>
+    <sheet name="MySingleFunction" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
   <si>
     <t>Level 1</t>
   </si>
@@ -112,6 +113,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/excelbi/recent-activity/all/</t>
+  </si>
+  <si>
+    <t>No Cleanup</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
   </si>
 </sst>
 </file>
@@ -414,6 +421,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57735</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>167797</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="A screenshot of a computer&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFAECA99-33FE-933A-8BB7-2806EFE67CF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7265670" y="478155"/>
+          <a:ext cx="4185870" cy="1131727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -845,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964F9CE5-9E8C-4780-A9B8-0E788D02E8A0}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C464C2D-916F-4EC8-B852-CA41AD20D45B}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1407,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD6A80D-8908-4584-84AA-154061888045}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A2, IF(OR(A2 &lt;&gt; "", B2 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B2)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A2, IF(OR(A2 &lt;&gt; "", B2 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B2))))</f>
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
@@ -1449,9 +1505,9 @@
       <c r="C3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="5" t="str">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A3, IF(OR(A3 &lt;&gt; "", B3 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B3)))</f>
-        <v>1.1</v>
+      <c r="E3" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A3, IF(OR(A3 &lt;&gt; "", B3 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B3))))</f>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1459,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A4, IF(OR(A4 &lt;&gt; "", B4 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B4)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A4, IF(OR(A4 &lt;&gt; "", B4 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B4))))</f>
         <v>1</v>
       </c>
     </row>
@@ -1471,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A5, IF(OR(A5 &lt;&gt; "", B5 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B5)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A5, IF(OR(A5 &lt;&gt; "", B5 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B5))))</f>
         <v>2</v>
       </c>
     </row>
@@ -1480,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A6, IF(OR(A6 &lt;&gt; "", B6 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B6)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A6, IF(OR(A6 &lt;&gt; "", B6 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B6))))</f>
         <v>2</v>
       </c>
     </row>
@@ -1492,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A7, IF(OR(A7 &lt;&gt; "", B7 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B7)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A7, IF(OR(A7 &lt;&gt; "", B7 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B7))))</f>
         <v>3</v>
       </c>
     </row>
@@ -1504,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A8, IF(OR(A8 &lt;&gt; "", B8 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B8)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A8, IF(OR(A8 &lt;&gt; "", B8 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B8))))</f>
         <v>4</v>
       </c>
     </row>
@@ -1515,9 +1571,9 @@
       <c r="C9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E9" s="5" t="str">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A9, IF(OR(A9 &lt;&gt; "", B9 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B9)))</f>
-        <v>4.1</v>
+      <c r="E9" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A9, IF(OR(A9 &lt;&gt; "", B9 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B9))))</f>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1525,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A10, IF(OR(A10 &lt;&gt; "", B10 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B10)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A10, IF(OR(A10 &lt;&gt; "", B10 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B10))))</f>
         <v>4</v>
       </c>
     </row>
@@ -1536,8 +1592,8 @@
       <c r="C11">
         <v>4.2</v>
       </c>
-      <c r="E11" s="5" t="str">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A11, IF(OR(A11 &lt;&gt; "", B11 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B11)))</f>
+      <c r="E11" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A11, IF(OR(A11 &lt;&gt; "", B11 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B11))))</f>
         <v>4.2</v>
       </c>
     </row>
@@ -1548,8 +1604,8 @@
       <c r="C12">
         <v>4.3</v>
       </c>
-      <c r="E12" s="5" t="str">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A12, IF(OR(A12 &lt;&gt; "", B12 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B12)))</f>
+      <c r="E12" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A12, IF(OR(A12 &lt;&gt; "", B12 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B12))))</f>
         <v>4.3</v>
       </c>
     </row>
@@ -1561,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A13, IF(OR(A13 &lt;&gt; "", B13 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B13)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A13, IF(OR(A13 &lt;&gt; "", B13 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B13))))</f>
         <v>5</v>
       </c>
     </row>
@@ -1572,9 +1628,9 @@
       <c r="C14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E14" s="5" t="str">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A14, IF(OR(A14 &lt;&gt; "", B14 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B14)))</f>
-        <v>5.1</v>
+      <c r="E14" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A14, IF(OR(A14 &lt;&gt; "", B14 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B14))))</f>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1584,8 +1640,8 @@
       <c r="C15">
         <v>5.2</v>
       </c>
-      <c r="E15" s="5" t="str">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A15, IF(OR(A15 &lt;&gt; "", B15 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B15)))</f>
+      <c r="E15" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A15, IF(OR(A15 &lt;&gt; "", B15 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B15))))</f>
         <v>5.2</v>
       </c>
     </row>
@@ -1600,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A16, IF(OR(A16 &lt;&gt; "", B16 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B16)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A16, IF(OR(A16 &lt;&gt; "", B16 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B16))))</f>
         <v>6</v>
       </c>
     </row>
@@ -1611,8 +1667,8 @@
       <c r="C17">
         <v>6.1</v>
       </c>
-      <c r="E17" s="5" t="str">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A17, IF(OR(A17 &lt;&gt; "", B17 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B17)))</f>
+      <c r="E17" s="5">
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A17, IF(OR(A17 &lt;&gt; "", B17 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B17))))</f>
         <v>6.1</v>
       </c>
     </row>
@@ -1627,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="5">
-        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A18, IF(OR(A18 &lt;&gt; "", B18 = ""), COUNTA(_xlpm.a), COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B18)))</f>
+        <f ca="1">_xlfn.LET(_xlpm.a, $A$2:A18, IF(OR(A18 &lt;&gt; "", B18 = ""), COUNTA(_xlpm.a), --(COUNTA(_xlpm.a) &amp; "." &amp; COUNTA(OFFSET(_xlfn.XLOOKUP("*", _xlpm.a, _xlpm.a, , 2, -1), 1, 0):B18))))</f>
         <v>7</v>
       </c>
     </row>
@@ -1637,4 +1693,337 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5028F6-FA56-4ED5-9602-516898D77463}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2:E18">_xlfn.LET(
+_xlpm.b,A2:A18&amp;B2:B18,
+_xlpm.x,_xlfn.SCAN(0,_xlpm.b,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.SWITCH(TRUE,_xlpm.v="",_xlpm.a, LEN(_xlpm.v)&gt;1,INT(_xlpm.a)+1,_xlpm.a+0.1))),
+_xlpm.x
+)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2:F18">IF(B2:B18="",INT(E2:E18),E2:E18)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="b" cm="1">
+        <f t="array" ref="H2:H18">C2:C18=_xlfn.ANCHORARRAY(F2)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4.2</v>
+      </c>
+      <c r="E11">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="F11">
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>4.3</v>
+      </c>
+      <c r="E12">
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="F12">
+        <v>4.2999999999999989</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>5.2</v>
+      </c>
+      <c r="E15">
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="F15">
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>6.1</v>
+      </c>
+      <c r="E17">
+        <v>6.1</v>
+      </c>
+      <c r="F17">
+        <v>6.1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_490 - Fill Down.xlsx
+++ b/Excel_Challenge_490 - Fill Down.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E24D3AD-ECCC-4093-BCD2-42442F9B50BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032E89F-7A58-4D51-9231-55B7F285F608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1700,7 +1700,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
